--- a/ADCVD_REGRESSION_FULL_API/input_data/datapool/weekend_holiday_tolling_dates.xlsx
+++ b/ADCVD_REGRESSION_FULL_API/input_data/datapool/weekend_holiday_tolling_dates.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655999FC-076F-4ECF-AFA2-00F40F69D204}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB3BFC8-C95D-404D-B43D-6EA8D731D33B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expedited_Review" sheetId="11" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="petion" sheetId="8" r:id="rId5"/>
     <sheet name="investigation" sheetId="5" r:id="rId6"/>
     <sheet name="inv" sheetId="6" r:id="rId7"/>
-    <sheet name="admin review" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="admin review" sheetId="1" r:id="rId8"/>
     <sheet name="adm" sheetId="3" state="hidden" r:id="rId9"/>
     <sheet name="anti-circumvention" sheetId="2" r:id="rId10"/>
     <sheet name="Shipper_Review" sheetId="13" r:id="rId11"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="297">
   <si>
     <t>Field_Name</t>
   </si>
@@ -939,13 +939,19 @@
   </si>
   <si>
     <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>Date_For_Standard_Tolling_Days</t>
+  </si>
+  <si>
+    <t>Date_For_Record_Tolling_Days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +995,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1413,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D258D1-5EA0-4F6B-85E9-4F2336A57E51}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1424,10 +1436,11 @@
     <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" customHeight="1">
+    <row r="1" spans="1:5" ht="25.8" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1438,10 +1451,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1454,8 +1470,11 @@
       <c r="D2" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1468,8 +1487,11 @@
       <c r="D3" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1482,8 +1504,11 @@
       <c r="D4" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1496,8 +1521,11 @@
       <c r="D5" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1510,8 +1538,11 @@
       <c r="D6" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1524,8 +1555,11 @@
       <c r="D7" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1538,8 +1572,11 @@
       <c r="D8" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1552,8 +1589,11 @@
       <c r="D9" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="D10" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="D11" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1594,8 +1640,11 @@
       <c r="D12" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1608,8 +1657,11 @@
       <c r="D13" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1622,8 +1674,11 @@
       <c r="D14" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1634,6 +1689,9 @@
         <v>160</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1645,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86B2209-1179-4339-8C1F-8285042DA536}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1656,10 +1714,11 @@
     <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1670,10 +1729,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1686,8 +1748,11 @@
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1700,8 +1765,11 @@
       <c r="D3" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1714,8 +1782,11 @@
       <c r="D4" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1728,8 +1799,11 @@
       <c r="D5" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1742,8 +1816,11 @@
       <c r="D6" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1756,8 +1833,11 @@
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1770,8 +1850,11 @@
       <c r="D8" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1784,8 +1867,11 @@
       <c r="D9" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1798,8 +1884,11 @@
       <c r="D10" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1812,8 +1901,11 @@
       <c r="D11" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1826,8 +1918,11 @@
       <c r="D12" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1838,6 +1933,9 @@
         <v>193</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1848,18 +1946,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8EE71C-EA06-45E7-90A0-E7620B96986C}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1870,10 +1970,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1886,8 +1989,11 @@
       <c r="D2" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1900,8 +2006,11 @@
       <c r="D3" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1914,8 +2023,11 @@
       <c r="D4" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1928,8 +2040,11 @@
       <c r="D5" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1942,8 +2057,11 @@
       <c r="D6" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1956,8 +2074,11 @@
       <c r="D7" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1970,8 +2091,11 @@
       <c r="D8" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1984,8 +2108,11 @@
       <c r="D9" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1998,8 +2125,11 @@
       <c r="D10" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2012,8 +2142,11 @@
       <c r="D11" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2026,8 +2159,11 @@
       <c r="D12" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2040,8 +2176,11 @@
       <c r="D13" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2054,8 +2193,11 @@
       <c r="D14" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2066,6 +2208,9 @@
         <v>160</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2307,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9841E6-9107-42D1-90F5-03C2AB1C780B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2318,10 +2463,11 @@
     <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2332,10 +2478,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2348,8 +2497,11 @@
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2362,8 +2514,11 @@
       <c r="D3" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2376,8 +2531,11 @@
       <c r="D4" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2390,8 +2548,11 @@
       <c r="D5" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2404,8 +2565,11 @@
       <c r="D6" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2418,8 +2582,11 @@
       <c r="D7" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2432,8 +2599,11 @@
       <c r="D8" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2444,6 +2614,9 @@
         <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2601,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149C1F1A-4F97-493A-BC0E-76C0076B84DB}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2612,10 +2785,11 @@
     <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2626,10 +2800,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2642,8 +2819,11 @@
       <c r="D2" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="D3" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -2670,8 +2853,11 @@
       <c r="D4" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -2684,8 +2870,11 @@
       <c r="D5" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2698,8 +2887,11 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2904,11 @@
       <c r="D7" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2726,8 +2921,11 @@
       <c r="D8" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2740,8 +2938,11 @@
       <c r="D9" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2754,8 +2955,11 @@
       <c r="D10" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -2768,8 +2972,11 @@
       <c r="D11" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2782,8 +2989,11 @@
       <c r="D12" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2796,8 +3006,11 @@
       <c r="D13" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2810,8 +3023,11 @@
       <c r="D14" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2824,8 +3040,11 @@
       <c r="D15" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2836,6 +3055,9 @@
         <v>184</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3091,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BD1E50-B3F1-49AF-8A9C-2D2C4D9C7B6E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G13:G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3102,10 +3324,10 @@
     <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3116,10 +3338,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3132,8 +3357,11 @@
       <c r="D2" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3146,8 +3374,11 @@
       <c r="D3" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3160,8 +3391,11 @@
       <c r="D4" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3174,8 +3408,11 @@
       <c r="D5" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3188,8 +3425,11 @@
       <c r="D6" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3202,8 +3442,11 @@
       <c r="D7" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3216,8 +3459,11 @@
       <c r="D8" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3228,6 +3474,9 @@
         <v>249</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3385,10 +3634,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9703A75F-7C0A-47ED-B745-54EA04F3AB8D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3396,10 +3645,11 @@
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3410,10 +3660,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -3426,8 +3679,11 @@
       <c r="D2" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -3440,8 +3696,11 @@
       <c r="D3" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -3454,8 +3713,11 @@
       <c r="D4" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3468,8 +3730,11 @@
       <c r="D5" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3482,8 +3747,11 @@
       <c r="D6" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3496,8 +3764,11 @@
       <c r="D7" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3508,6 +3779,9 @@
         <v>249</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4023,10 +4297,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2FEF5A-34F8-4BD0-AEFA-517D6295B134}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4034,10 +4308,11 @@
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4048,10 +4323,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -4064,8 +4342,11 @@
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -4078,8 +4359,11 @@
       <c r="D3" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -4092,8 +4376,11 @@
       <c r="D4" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4106,8 +4393,11 @@
       <c r="D5" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4120,8 +4410,11 @@
       <c r="D6" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4134,8 +4427,11 @@
       <c r="D7" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4148,8 +4444,11 @@
       <c r="D8" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4162,8 +4461,11 @@
       <c r="D9" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4176,8 +4478,11 @@
       <c r="D10" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4190,8 +4495,11 @@
       <c r="D11" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4204,8 +4512,11 @@
       <c r="D12" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4216,6 +4527,9 @@
         <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4660,10 +4974,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56AE6AE-21BD-4128-9A0D-2FE68BF90395}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="E1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4671,10 +4985,11 @@
     <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4685,10 +5000,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -4701,8 +5019,11 @@
       <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -4715,8 +5036,11 @@
       <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -4729,8 +5053,12 @@
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4738,10 +5066,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4D2CDB-4E0D-431B-977D-F1BABFDDCE3D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4750,9 +5078,10 @@
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4763,10 +5092,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -4779,8 +5111,11 @@
       <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -4793,8 +5128,11 @@
       <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -4805,6 +5143,9 @@
         <v>165</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4815,10 +5156,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FAF9DE-7D81-4F5E-AEF1-CE1C8C6B6395}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D23"/>
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4826,10 +5167,11 @@
     <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4840,10 +5182,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -4856,8 +5201,11 @@
       <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -4870,8 +5218,11 @@
       <c r="D3" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -4884,8 +5235,11 @@
       <c r="D4" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4898,8 +5252,11 @@
       <c r="D5" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4912,8 +5269,11 @@
       <c r="D6" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4926,8 +5286,11 @@
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4940,8 +5303,11 @@
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4954,8 +5320,11 @@
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4968,8 +5337,11 @@
       <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
@@ -4982,8 +5354,11 @@
       <c r="D11" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
@@ -4996,8 +5371,11 @@
       <c r="D12" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -5010,8 +5388,11 @@
       <c r="D13" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5024,8 +5405,11 @@
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5038,8 +5422,11 @@
       <c r="D15" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -5052,8 +5439,11 @@
       <c r="D16" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="12" t="s">
         <v>52</v>
       </c>
@@ -5066,8 +5456,11 @@
       <c r="D17" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
@@ -5080,8 +5473,11 @@
       <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>51</v>
       </c>
@@ -5094,8 +5490,11 @@
       <c r="D19" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="13" t="s">
         <v>50</v>
       </c>
@@ -5108,8 +5507,11 @@
       <c r="D20" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -5122,8 +5524,11 @@
       <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -5136,8 +5541,11 @@
       <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -5148,6 +5556,9 @@
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5159,323 +5570,409 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7DD527-315C-4A7D-BF25-8DF5A7AD154B}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D22"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12" t="s">
+      <c r="E16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="13" t="s">
+      <c r="E17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="E19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5487,10 +5984,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5498,10 +5995,11 @@
     <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5512,10 +6010,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5528,8 +6029,11 @@
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -5542,8 +6046,11 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5556,8 +6063,11 @@
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5570,8 +6080,11 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5584,8 +6097,11 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5598,8 +6114,11 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5612,8 +6131,11 @@
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5626,8 +6148,11 @@
       <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5640,8 +6165,11 @@
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -5654,8 +6182,11 @@
       <c r="D11" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5668,8 +6199,11 @@
       <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -5682,8 +6216,11 @@
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -5696,8 +6233,11 @@
       <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -5708,6 +6248,9 @@
         <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
     </row>

--- a/ADCVD_REGRESSION_FULL_API/input_data/datapool/weekend_holiday_tolling_dates.xlsx
+++ b/ADCVD_REGRESSION_FULL_API/input_data/datapool/weekend_holiday_tolling_dates.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB3BFC8-C95D-404D-B43D-6EA8D731D33B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954B9396-F67F-49E8-9A0C-2BA1E0A4219D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedited_Review" sheetId="11" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="23" r:id="rId2"/>
-    <sheet name="expdted" sheetId="12" state="hidden" r:id="rId3"/>
-    <sheet name="petition" sheetId="4" r:id="rId4"/>
-    <sheet name="petion" sheetId="8" r:id="rId5"/>
-    <sheet name="investigation" sheetId="5" r:id="rId6"/>
-    <sheet name="inv" sheetId="6" r:id="rId7"/>
-    <sheet name="admin review" sheetId="1" r:id="rId8"/>
-    <sheet name="adm" sheetId="3" state="hidden" r:id="rId9"/>
-    <sheet name="anti-circumvention" sheetId="2" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId1"/>
+    <sheet name="expdted" sheetId="12" state="hidden" r:id="rId2"/>
+    <sheet name="petition" sheetId="4" r:id="rId3"/>
+    <sheet name="petion" sheetId="8" r:id="rId4"/>
+    <sheet name="investigation" sheetId="5" r:id="rId5"/>
+    <sheet name="inv" sheetId="6" r:id="rId6"/>
+    <sheet name="admin review" sheetId="1" r:id="rId7"/>
+    <sheet name="adm" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="anti-circumvention" sheetId="2" r:id="rId9"/>
+    <sheet name="Expedited_Review" sheetId="11" r:id="rId10"/>
     <sheet name="Shipper_Review" sheetId="13" r:id="rId11"/>
     <sheet name="shprReview" sheetId="14" state="hidden" r:id="rId12"/>
     <sheet name="Scope_Inquiry" sheetId="15" r:id="rId13"/>
@@ -1424,11 +1424,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1250F6B-6CD5-4A87-B0D8-1D939090CD51}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D258D1-5EA0-4F6B-85E9-4F2336A57E51}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1698,249 +1853,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86B2209-1179-4339-8C1F-8285042DA536}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3791,153 +3703,229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1250F6B-6CD5-4A87-B0D8-1D939090CD51}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C288E826-6CB2-403E-859D-6190494345DF}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="B2" sqref="B2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>206</v>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>215</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>228</v>
+      <c r="B11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4742,237 +4730,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C288E826-6CB2-403E-859D-6190494345DF}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56AE6AE-21BD-4128-9A0D-2FE68BF90395}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -5064,7 +4821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4D2CDB-4E0D-431B-977D-F1BABFDDCE3D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -5154,7 +4911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FAF9DE-7D81-4F5E-AEF1-CE1C8C6B6395}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5568,7 +5325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7DD527-315C-4A7D-BF25-8DF5A7AD154B}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5982,11 +5739,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
@@ -6260,7 +6017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C2E557-44A9-42BF-BE43-93737AF8C89E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -6629,4 +6386,247 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86B2209-1179-4339-8C1F-8285042DA536}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>